--- a/Output/Question level FSI Analytics.xlsx
+++ b/Output/Question level FSI Analytics.xlsx
@@ -33,21 +33,21 @@
     <t>Reaching</t>
   </si>
   <si>
+    <t>Both hands on handles, neutral wrist position, scanner in holder, elbows tucked in</t>
+  </si>
+  <si>
+    <t>Push / Pull</t>
+  </si>
+  <si>
+    <t>Pause at end of aisles, blind spots, and passing in aisle</t>
+  </si>
+  <si>
     <t>Begin push/pull in slow and steady manner using both hands, avoid """"jerking""""</t>
   </si>
   <si>
-    <t>Push / Pull</t>
-  </si>
-  <si>
     <t>Push, don’t pull, one cart/trolley or cage at a time</t>
   </si>
   <si>
-    <t>Both hands on handles, neutral wrist position, scanner in holder, elbows tucked in</t>
-  </si>
-  <si>
-    <t>Pause at end of aisles, blind spots, and passing in aisle</t>
-  </si>
-  <si>
     <t>Job task / procedure not followed</t>
   </si>
   <si>
@@ -78,310 +78,310 @@
     <t>Knife</t>
   </si>
   <si>
+    <t>Bin Hazard: Is product overhanging by more than one badge length?</t>
+  </si>
+  <si>
+    <t>Handling Objects</t>
+  </si>
+  <si>
+    <t>Adequate grip ,C–grip, thumb neutral (not overextended)</t>
+  </si>
+  <si>
+    <t>One piece flow</t>
+  </si>
+  <si>
     <t>When handling product, scanner is not held in the same hand as product</t>
   </si>
   <si>
-    <t>Handling Objects</t>
-  </si>
-  <si>
-    <t>Bin Hazard: Is product overhanging by more than one badge length?</t>
-  </si>
-  <si>
-    <t>One piece flow</t>
-  </si>
-  <si>
     <t>Are the associates wearing the proper PPE?</t>
   </si>
   <si>
-    <t>Adequate grip ,C–grip, thumb neutral (not overextended)</t>
+    <t>No Entanglement personal items available on the associates.</t>
+  </si>
+  <si>
+    <t>Conveyor</t>
+  </si>
+  <si>
+    <t>Hands are placed on the conveyor.</t>
   </si>
   <si>
     <t>No boxes are stacked on the conveyor</t>
   </si>
   <si>
-    <t>Conveyor</t>
-  </si>
-  <si>
-    <t>No Entanglement personal items available on the associates.</t>
-  </si>
-  <si>
-    <t>Hands are placed on the conveyor.</t>
+    <t>When bending at waist with extended reach, use 3 points of contact to support your back</t>
+  </si>
+  <si>
+    <t>Bending at Knees</t>
+  </si>
+  <si>
+    <t>Bend at knees, keep back straight, use power stance</t>
   </si>
   <si>
     <t>To rise from squat/kneel, use 3 points or build a bridge</t>
   </si>
   <si>
-    <t>Bending at Knees</t>
-  </si>
-  <si>
-    <t>Bend at knees, keep back straight, use power stance</t>
-  </si>
-  <si>
-    <t>When bending at waist with extended reach, use 3 points of contact to support your back</t>
+    <t>Eyes on the path or task</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Failure to operate within personal limits (e.g. stretching)</t>
   </si>
   <si>
     <t>Running/ rushing</t>
   </si>
   <si>
-    <t>Behavior</t>
-  </si>
-  <si>
-    <t>Eyes on the path or task</t>
-  </si>
-  <si>
-    <t>Failure to operate within personal limits (e.g. stretching)</t>
-  </si>
-  <si>
     <t>category_name</t>
   </si>
   <si>
     <t>action_title</t>
   </si>
   <si>
+    <t>Associados foram orientados</t>
+  </si>
+  <si>
+    <t>AA orientado a empurrar carrinho em vez de puxar.</t>
+  </si>
+  <si>
+    <t>AA orientada a pegar escada</t>
+  </si>
+  <si>
+    <t>AA orientado</t>
+  </si>
+  <si>
+    <t>AA foi orientada a colocar o carrinho no final do corredor criando assim uma barreira física para sí e visualmente os demais AA conseguiriam perceber que ali tem a presença de outra pessoa.</t>
+  </si>
+  <si>
+    <t>AAs comunicados sobre alocar uboats nas posições e alocar os totes</t>
+  </si>
+  <si>
+    <t>orientado a realizar fluxo de 1 item por vez</t>
+  </si>
+  <si>
+    <t>AA orientado a segurar o tote com as duas mãos.</t>
+  </si>
+  <si>
+    <t>Reforçar no STAND UP a dica de segurança """"GRITAR ESQUINA"""" ao sair ou entrar dos MODS</t>
+  </si>
+  <si>
+    <t>AA orientado sobre a importância de gritar ''ESQUINA''</t>
+  </si>
+  <si>
+    <t>Mencionar no Stand up a regra de Gritar esquina nos cruzamentos</t>
+  </si>
+  <si>
+    <t>Orientar AAs a manter</t>
+  </si>
+  <si>
+    <t>AA orientados para seguir com uma caixa por vez</t>
+  </si>
+  <si>
+    <t>AA orientada a usar a postura de ponte</t>
+  </si>
+  <si>
+    <t>AA orientado a diminuir velocidade e gritar esquina.</t>
+  </si>
+  <si>
+    <t>Associados orientados através de mensagem nos coletores a manterem a organização dos itens nos compartimentos</t>
+  </si>
+  <si>
+    <t>AA foi orientado sobre a utilização de luvas para realizar atividade e corrigiu o comportamento.</t>
+  </si>
+  <si>
+    <t>Orientado a colocar mão no corrimão ao usar escadas.</t>
+  </si>
+  <si>
+    <t>Orientar A.A no stand-up para não correr</t>
+  </si>
+  <si>
+    <t>Orientar aos A.A no Stand-up a manter os olhos na atividade</t>
+  </si>
+  <si>
+    <t>Associada foi orientada</t>
+  </si>
+  <si>
+    <t>Mencionar como dica de segurança no Stand up """" Sempre empurrar os carrinhos com as duas mãos na alça""""</t>
+  </si>
+  <si>
+    <t>Orientar os A.A a manter ambas as mão no carrinho</t>
+  </si>
+  <si>
+    <t>Orientar os associados a manter a organização na área.</t>
+  </si>
+  <si>
+    <t>Reforçar no STAND UP Garantir, pausar no final dos corredores, pontos cegos e passar pelo corredor</t>
+  </si>
+  <si>
+    <t>Caixas de transfer-in jogadas ao lado do scuttle. Solicitei o apoio da equipe da california para realizar a retirada das caixas.</t>
+  </si>
+  <si>
+    <t>Empurrando carrinho com o coletor nas mãos, orientar no stand-up</t>
+  </si>
+  <si>
+    <t>AA orientado e pallet remontado</t>
+  </si>
+  <si>
+    <t>Orientar AAs não sobrepor caixas na esteira</t>
+  </si>
+  <si>
+    <t>AA orientado a flexionar joelhos para evitar dor na lombar.</t>
+  </si>
+  <si>
+    <t>AA orientada de colocar as caixas na esteira e ralizar o processo de uma caixa por vez.</t>
+  </si>
+  <si>
+    <t>AA sentado no meio dos corredores do PICK MOD. Orientei os AA's sobre os riscos e reforcei a importancia de não ficar sentado no processo.</t>
+  </si>
+  <si>
+    <t>AA orientado a não realizar esse procedimento, risco de queda da própria altura</t>
+  </si>
+  <si>
+    <t>AA foi orientada a coletar um item por vez, evitando assim que o mesmo caia.</t>
+  </si>
+  <si>
+    <t>AA foi orientada a utilizar o estilete sempre longe do corpo.</t>
+  </si>
+  <si>
+    <t>Solicitamos que os AA acionassem o andon vermelho diante a situações que a esteira fique muito cheia para a liderança ter visibilidade da situação.</t>
+  </si>
+  <si>
+    <t>A.A orientado para colocar a toca para fora da blusa</t>
+  </si>
+  <si>
+    <t>Orientar aos A.A manter os carrinhos organizados na deamarcação</t>
+  </si>
+  <si>
+    <t>AA foi orientado a manusear uma caixa de cada vez e corrigiu o comportamento.</t>
+  </si>
+  <si>
+    <t>Chamei o embaixador que estava acompanhando o processo de auditoria, expliquei dos riscos e pedi para ele separar os AAs para outros processos.</t>
+  </si>
+  <si>
+    <t>Orientar AAs a não soltar carts, e entregar na mão do colega em casos devidos.</t>
+  </si>
+  <si>
+    <t>Orientar em stand-up a guardar a escada onde retirou e aberta</t>
+  </si>
+  <si>
+    <t>Tapete ergonômico fornecido e AA orientada a utilizar o mesmo sempre que for armazenar itens em níveis baixos.</t>
+  </si>
+  <si>
+    <t>Orientar time de stow a nunca armazenar item ultrapassando os limites do bin.</t>
+  </si>
+  <si>
+    <t>AA orientado a coletar 1 peça por vez.</t>
+  </si>
+  <si>
+    <t>AA orientado a sempre manter os tres pontos de contato construindo a ponte ao coletar no ultimo 2 niveis</t>
+  </si>
+  <si>
+    <t>Orientado a usar escada.</t>
+  </si>
+  <si>
+    <t>AA orientada</t>
+  </si>
+  <si>
+    <t>AA orientado a processar um item de cada vez e alocar no slot correto</t>
+  </si>
+  <si>
+    <t>Conversado com AA sobre manuseio dos carrinhos e atenção ao caminho.</t>
+  </si>
+  <si>
+    <t>Scuttles lacrado.</t>
+  </si>
+  <si>
+    <t>Organizei o item no bin</t>
+  </si>
+  <si>
+    <t>Associada foi orientada sobre o processo.</t>
+  </si>
+  <si>
+    <t>Ação corretiva no momento da inspeção e enviado como dica de segurança nos scanners dos pickers, a gritarem esquina e reduzirem a velocidade.</t>
+  </si>
+  <si>
+    <t>AA orientado a fazer uma peça por vez e não segurar o produto na mesma mão que o coletor</t>
+  </si>
+  <si>
+    <t>AA orientada a usar as 2 mãos no carrinho.</t>
+  </si>
+  <si>
+    <t>AA orientado a fazer uma caixa por vez.</t>
+  </si>
+  <si>
+    <t>AA Foi orientada a pegar a escada com as duas mãos e manusear. Evitar arrastar.</t>
+  </si>
+  <si>
+    <t>AA foi orientado a utilizar o lado esquerdo que possui o dispositivo de emergência para abaixar o palete em situações em que for necessário.</t>
+  </si>
+  <si>
+    <t>1. A.A orientada sobre o padrão correto.</t>
+  </si>
+  <si>
+    <t>AA orientado a usar escada caso remova calcanhar do chão.</t>
+  </si>
+  <si>
+    <t>A.A foi orientada sobre o processo correto</t>
+  </si>
+  <si>
+    <t>Orientar time de Stow do T1 e T2 a não superlotarem os bins, risco de queada de produtos sobre os AAs.</t>
+  </si>
+  <si>
+    <t>Orientar no stand up sempre que realizar manuseio dos carrinhos alocar o RF no suporte</t>
+  </si>
+  <si>
+    <t>AA orientado a não se apoiar na esteira</t>
+  </si>
+  <si>
+    <t>AA foi orientada sobre o epi necessário para realizar a atividade.</t>
+  </si>
+  <si>
+    <t>AA foi orientado a empurrar o carrinho e sair sempre de frente, evitando puxar o carrinho.</t>
+  </si>
+  <si>
+    <t>Associado foi orientado</t>
+  </si>
+  <si>
+    <t>Dar dica de segurança para AA manter o carrinho de picking sempre próximo a posição de coleta para evitar que precise carregar mais de um item por vez</t>
+  </si>
+  <si>
+    <t>A.A foi orientada sobre o processo correto.</t>
+  </si>
+  <si>
+    <t>AA orientado sempre antes de entrar no processo, verificar se esta com todos os epi's correspodente a atividade</t>
+  </si>
+  <si>
+    <t>A.A foi orientada para amarrar o cabelo</t>
+  </si>
+  <si>
+    <t>AA orientada a usar escada.</t>
+  </si>
+  <si>
+    <t>AA saindo do corredor puxando o carrinho. Orientei AA sobre sempre empurrar o carrinho para previnir incidentes.</t>
+  </si>
+  <si>
+    <t>Orinetar no stand-up aos A.A a não girar o tronco</t>
+  </si>
+  <si>
+    <t>AAs orientados</t>
+  </si>
+  <si>
+    <t>AA orientado a diminuir velocidade para evitar colisões.</t>
+  </si>
+  <si>
+    <t>AA foi orientado sobre o EPI adequado.</t>
+  </si>
+  <si>
+    <t>Feedback aplicado</t>
+  </si>
+  <si>
+    <t>Acionamos time de WHS para realuzar troca das luvas.</t>
+  </si>
+  <si>
+    <t>Validar melhor maneira de executar a colagem da etq, principalmente se for um AA de baixa estatura.</t>
+  </si>
+  <si>
     <t>Foi chamada o time de limpeza para regularizar a área.</t>
-  </si>
-  <si>
-    <t>Orientado a colocar mão no corrimão ao usar escadas.</t>
-  </si>
-  <si>
-    <t>Scuttles lacrado.</t>
-  </si>
-  <si>
-    <t>Orientar AAs não sobrepor caixas na esteira</t>
-  </si>
-  <si>
-    <t>AA orientado a não realizar esse procedimento, risco de queda da própria altura</t>
-  </si>
-  <si>
-    <t>Empurrando carrinho com o coletor nas mãos, orientar no stand-up</t>
-  </si>
-  <si>
-    <t>AA orientada de colocar as caixas na esteira e ralizar o processo de uma caixa por vez.</t>
-  </si>
-  <si>
-    <t>AA orientado a fazer uma peça por vez e não segurar o produto na mesma mão que o coletor</t>
-  </si>
-  <si>
-    <t>Mencionar como dica de segurança no Stand up """" Sempre empurrar os carrinhos com as duas mãos na alça""""</t>
-  </si>
-  <si>
-    <t>Orientar AAs a manter</t>
-  </si>
-  <si>
-    <t>AA foi orientada a utilizar o estilete sempre longe do corpo.</t>
-  </si>
-  <si>
-    <t>AA orientado a flexionar joelhos para evitar dor na lombar.</t>
-  </si>
-  <si>
-    <t>Associado foi orientado</t>
-  </si>
-  <si>
-    <t>Orientado a usar escada.</t>
-  </si>
-  <si>
-    <t>AA foi orientado sobre a utilização de luvas para realizar atividade e corrigiu o comportamento.</t>
-  </si>
-  <si>
-    <t>Caixas de transfer-in jogadas ao lado do scuttle. Solicitei o apoio da equipe da california para realizar a retirada das caixas.</t>
-  </si>
-  <si>
-    <t>AA orientado</t>
-  </si>
-  <si>
-    <t>Reforçar no STAND UP a dica de segurança """"GRITAR ESQUINA"""" ao sair ou entrar dos MODS</t>
-  </si>
-  <si>
-    <t>AA orientado a diminuir velocidade e gritar esquina.</t>
-  </si>
-  <si>
-    <t>AA foi orientada a colocar o carrinho no final do corredor criando assim uma barreira física para sí e visualmente os demais AA conseguiriam perceber que ali tem a presença de outra pessoa.</t>
-  </si>
-  <si>
-    <t>AA orientado e pallet remontado</t>
-  </si>
-  <si>
-    <t>Orientar aos A.A manter os carrinhos organizados na deamarcação</t>
-  </si>
-  <si>
-    <t>Orientar no stand up sempre que realizar manuseio dos carrinhos alocar o RF no suporte</t>
-  </si>
-  <si>
-    <t>Reforçar no STAND UP Garantir, pausar no final dos corredores, pontos cegos e passar pelo corredor</t>
-  </si>
-  <si>
-    <t>A.A foi orientada sobre o processo correto.</t>
-  </si>
-  <si>
-    <t>AA sentado no meio dos corredores do PICK MOD. Orientei os AA's sobre os riscos e reforcei a importancia de não ficar sentado no processo.</t>
-  </si>
-  <si>
-    <t>AA orientada a usar a postura de ponte</t>
-  </si>
-  <si>
-    <t>AA foi orientado sobre o EPI adequado.</t>
-  </si>
-  <si>
-    <t>Orientar os A.A a manter ambas as mão no carrinho</t>
-  </si>
-  <si>
-    <t>Chamei o embaixador que estava acompanhando o processo de auditoria, expliquei dos riscos e pedi para ele separar os AAs para outros processos.</t>
-  </si>
-  <si>
-    <t>Associados orientados através de mensagem nos coletores a manterem a organização dos itens nos compartimentos</t>
-  </si>
-  <si>
-    <t>Orinetar no stand-up aos A.A a não girar o tronco</t>
-  </si>
-  <si>
-    <t>AA foi orientada a coletar um item por vez, evitando assim que o mesmo caia.</t>
-  </si>
-  <si>
-    <t>AAs comunicados sobre alocar uboats nas posições e alocar os totes</t>
-  </si>
-  <si>
-    <t>Orientar aos A.A no Stand-up a manter os olhos na atividade</t>
-  </si>
-  <si>
-    <t>1. A.A orientada sobre o padrão correto.</t>
-  </si>
-  <si>
-    <t>AA orientado a processar um item de cada vez e alocar no slot correto</t>
-  </si>
-  <si>
-    <t>AA orientado sempre antes de entrar no processo, verificar se esta com todos os epi's correspodente a atividade</t>
-  </si>
-  <si>
-    <t>AA orientado a fazer uma caixa por vez.</t>
-  </si>
-  <si>
-    <t>AA orientado a empurrar carrinho em vez de puxar.</t>
-  </si>
-  <si>
-    <t>Dar dica de segurança para AA manter o carrinho de picking sempre próximo a posição de coleta para evitar que precise carregar mais de um item por vez</t>
-  </si>
-  <si>
-    <t>AA orientada a pegar escada</t>
-  </si>
-  <si>
-    <t>AA orientado a usar escada caso remova calcanhar do chão.</t>
-  </si>
-  <si>
-    <t>Associada foi orientada sobre o processo.</t>
-  </si>
-  <si>
-    <t>Orientar time de Stow do T1 e T2 a não superlotarem os bins, risco de queada de produtos sobre os AAs.</t>
-  </si>
-  <si>
-    <t>AA orientado a sempre manter os tres pontos de contato construindo a ponte ao coletar no ultimo 2 niveis</t>
-  </si>
-  <si>
-    <t>Organizei o item no bin</t>
-  </si>
-  <si>
-    <t>AA orientado a não se apoiar na esteira</t>
-  </si>
-  <si>
-    <t>AA orientado a coletar 1 peça por vez.</t>
-  </si>
-  <si>
-    <t>AA foi orientado a empurrar o carrinho e sair sempre de frente, evitando puxar o carrinho.</t>
-  </si>
-  <si>
-    <t>Mencionar no Stand up a regra de Gritar esquina nos cruzamentos</t>
-  </si>
-  <si>
-    <t>Associados foram orientados</t>
-  </si>
-  <si>
-    <t>AA orientada</t>
-  </si>
-  <si>
-    <t>AA orientados para seguir com uma caixa por vez</t>
-  </si>
-  <si>
-    <t>AAs orientados</t>
-  </si>
-  <si>
-    <t>Orientar em stand-up a guardar a escada onde retirou e aberta</t>
-  </si>
-  <si>
-    <t>AA orientado sobre a importância de gritar ''ESQUINA''</t>
-  </si>
-  <si>
-    <t>Conversado com AA sobre manuseio dos carrinhos e atenção ao caminho.</t>
-  </si>
-  <si>
-    <t>Associada foi orientada</t>
-  </si>
-  <si>
-    <t>AA orientado a segurar o tote com as duas mãos.</t>
-  </si>
-  <si>
-    <t>A.A orientado para colocar a toca para fora da blusa</t>
-  </si>
-  <si>
-    <t>AA foi orientado a utilizar o lado esquerdo que possui o dispositivo de emergência para abaixar o palete em situações em que for necessário.</t>
-  </si>
-  <si>
-    <t>AA saindo do corredor puxando o carrinho. Orientei AA sobre sempre empurrar o carrinho para previnir incidentes.</t>
-  </si>
-  <si>
-    <t>AA foi orientada sobre o epi necessário para realizar a atividade.</t>
-  </si>
-  <si>
-    <t>Validar melhor maneira de executar a colagem da etq, principalmente se for um AA de baixa estatura.</t>
-  </si>
-  <si>
-    <t>Ação corretiva no momento da inspeção e enviado como dica de segurança nos scanners dos pickers, a gritarem esquina e reduzirem a velocidade.</t>
-  </si>
-  <si>
-    <t>A.A foi orientada para amarrar o cabelo</t>
-  </si>
-  <si>
-    <t>orientado a realizar fluxo de 1 item por vez</t>
-  </si>
-  <si>
-    <t>AA Foi orientada a pegar a escada com as duas mãos e manusear. Evitar arrastar.</t>
-  </si>
-  <si>
-    <t>Orientar AAs a não soltar carts, e entregar na mão do colega em casos devidos.</t>
-  </si>
-  <si>
-    <t>Solicitamos que os AA acionassem o andon vermelho diante a situações que a esteira fique muito cheia para a liderança ter visibilidade da situação.</t>
-  </si>
-  <si>
-    <t>Orientar A.A no stand-up para não correr</t>
-  </si>
-  <si>
-    <t>Orientar os associados a manter a organização na área.</t>
-  </si>
-  <si>
-    <t>AA orientada a usar as 2 mãos no carrinho.</t>
-  </si>
-  <si>
-    <t>Feedback aplicado</t>
-  </si>
-  <si>
-    <t>AA orientada a usar escada.</t>
-  </si>
-  <si>
-    <t>AA orientado a diminuir velocidade para evitar colisões.</t>
-  </si>
-  <si>
-    <t>Acionamos time de WHS para realuzar troca das luvas.</t>
-  </si>
-  <si>
-    <t>Tapete ergonômico fornecido e AA orientada a utilizar o mesmo sempre que for armazenar itens em níveis baixos.</t>
-  </si>
-  <si>
-    <t>A.A foi orientada sobre o processo correto</t>
-  </si>
-  <si>
-    <t>AA foi orientado a manusear uma caixa de cada vez e corrigiu o comportamento.</t>
-  </si>
-  <si>
-    <t>Orientar time de stow a nunca armazenar item ultrapassando os limites do bin.</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -768,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -845,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -878,7 +878,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -900,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -911,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -933,7 +933,7 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -977,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
